--- a/Pete_pantary.xlsx
+++ b/Pete_pantary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackthon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9176CA-B2E0-49AC-BCA3-040FB00E1E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC2774-29C3-4725-949A-BB224E024853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACB4E7BF-C1F5-4005-A5BF-5FDACB0131BC}"/>
   </bookViews>
@@ -350,9 +350,6 @@
     <t>Green tea</t>
   </si>
   <si>
-    <t>proteins</t>
-  </si>
-  <si>
     <t>Black Beans</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>Proteins</t>
   </si>
 </sst>
 </file>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA491BC8-F48E-41CB-AA8E-5A78B841F58A}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
@@ -1006,7 +1006,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1">
@@ -1611,7 +1611,7 @@
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1">
       <c r="A106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="107" spans="1:3" ht="15" thickBot="1">
       <c r="B107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1">
       <c r="B108" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1">
       <c r="B109" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1">
       <c r="B110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1">
       <c r="B111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="112" spans="1:3" ht="15" thickBot="1">
       <c r="B112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1">
       <c r="B113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1">
       <c r="B114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1">
       <c r="A116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1">
       <c r="B117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1">
       <c r="B118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>3</v>
